--- a/DungeonsAndDragons/resources/KeothiBattleCard.xlsx
+++ b/DungeonsAndDragons/resources/KeothiBattleCard.xlsx
@@ -547,9 +547,6 @@
     <t>does not include me.</t>
   </si>
   <si>
-    <t>+6 vs AC; 1d10 + 4 damage, and the target grants combat</t>
-  </si>
-  <si>
     <t>advantage to me and my allies until the end of next turn.</t>
   </si>
   <si>
@@ -843,6 +840,9 @@
   </si>
   <si>
     <t>the end of my next turn.</t>
+  </si>
+  <si>
+    <t>+6 vs Fort; 1d10 + 4 damage, and the target grants combat</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1705,7 +1705,7 @@
     <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1713,14 +1713,14 @@
     <row r="32" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="36" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="37" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="38" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="40" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="41" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="42" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="43" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="44" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="45" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1824,17 +1824,17 @@
     </row>
     <row r="46" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1843,26 +1843,26 @@
     <row r="48" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">

--- a/DungeonsAndDragons/resources/KeothiBattleCard.xlsx
+++ b/DungeonsAndDragons/resources/KeothiBattleCard.xlsx
@@ -35,6 +35,467 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+  </si>
+  <si>
+    <t>Keothi</t>
+  </si>
+  <si>
+    <t>Medium Goliath Warden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earth Shield Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (standard; at-will) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <t>of my next turn.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Strength of Stone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; at-will) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thunder Ram Assault </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; Encounter) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secondary attack: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>each creature in blast. 4 vs Fortitude</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1d6 thunder damage and I push the secondary</t>
+    </r>
+  </si>
+  <si>
+    <t>target 1 square.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Form of the Willow Sentinel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minor; Daily) - Personal</t>
+    </r>
+  </si>
+  <si>
+    <t>I assume the guardian form of the willow sentinel until</t>
+  </si>
+  <si>
+    <t>the end of the encounter. While in this form, I can negate</t>
+  </si>
+  <si>
+    <t>being pulled, pushed, or slid. Any ally adj to me gains +2</t>
+  </si>
+  <si>
+    <t>bonus to Fortitude. I can make the following attack once:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Immediate Interrupt  Melee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An adj enemy makes an attack roll against my ally.</t>
+    </r>
+  </si>
+  <si>
+    <t>penalty to the triggering attack roll.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Miss: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Half damage and the target takes -2 to the roll.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Warden's Fury </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Immediate Interrupt; at-will) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">An enemy marked by me makes an attack that </t>
+    </r>
+  </si>
+  <si>
+    <t>does not include me.</t>
+  </si>
+  <si>
+    <t>advantage to me and my allies until the end of next turn.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Warden's Grasp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Immediate Reaction; at-will)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trigger: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An enemy marked by me that is within 5 squares of me</t>
+    </r>
+  </si>
+  <si>
+    <t>makes an attack that does not include me.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I slide the target 1 square and the target is slowed and</t>
+    </r>
+  </si>
+  <si>
+    <t>cannot shift until the end of its turn.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alignment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Good</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Common, Giant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stone's Endurance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minor, Encounter)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I gain resist 5 to all damage until the end of my next turn</t>
+    </r>
+  </si>
+  <si>
+    <t>Once during each turn, I can mark each adj enemy until the</t>
+  </si>
+  <si>
+    <t>end of my next turn.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nature's Wrath </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(free; at-will)</t>
+    </r>
+  </si>
+  <si>
+    <t>Crushing Earthstrength</t>
+  </si>
+  <si>
+    <t>After using second wind, I gain 3 bonus to damage rolls until</t>
+  </si>
+  <si>
+    <t>the end of my next turn.</t>
+  </si>
+  <si>
+    <t>Level 2 Defender</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Initiative</t>
     </r>
     <r>
@@ -45,30 +506,250 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Speed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 6</t>
+      <t xml:space="preserve"> +2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Senses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Perception +6; normal vision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bloodied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fortitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 16; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reflex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Will</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+  </si>
+  <si>
+    <t>+7 vs AC; 1d10 + 5 damage and I gain +1 AC until the end</t>
+  </si>
+  <si>
+    <t>+7 vs AC; 1d10 + 5 damage, and I gain 4 temporary HP.</t>
+  </si>
+  <si>
+    <t>+7 vs AC; 1d10 + 5 thunder damage. Make a secondary</t>
+  </si>
+  <si>
+    <t>attack that is a close blast 3. Push the target 4 squares.</t>
+  </si>
+  <si>
+    <t>+5 vs AC; Hit: 1d10 + 5 damage and the target takes a -4</t>
+  </si>
+  <si>
+    <t>+7 vs Fort; 1d10 + 5 damage, and the target grants combat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 acro, 2 arc, 12 ath, 1 blf, 1 dip, 1 dun, 4 end, 6 heal, 2 hist</t>
+    </r>
+  </si>
+  <si>
+    <t>1 ins, 1 int, 8 nat, 6 perc, 2 rel, 2 sth, 1 str, 1 thv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18 (+5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 16 (+4)</t>
     </r>
   </si>
   <si>
@@ -91,7 +772,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13 (+1)</t>
+      <t xml:space="preserve"> 13 (+2)</t>
     </r>
   </si>
   <si>
@@ -114,7 +795,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12 (+1)</t>
+      <t xml:space="preserve"> 12 (+2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11 (+1)</t>
     </r>
   </si>
   <si>
@@ -137,712 +841,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 10 (+0)</t>
-    </r>
-  </si>
-  <si>
-    <t>Keothi</t>
-  </si>
-  <si>
-    <t>Level 1 Defender</t>
-  </si>
-  <si>
-    <t>Medium Goliath Warden</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Senses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Perception +5; normal vision</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 33; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bloodied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 13; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fortitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 15; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reflex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 11; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Will</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Earth Shield Strike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (standard; at-will) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <t>+6 vs AC; 1d10 + 4 damage and I gain +1 AC until the end</t>
-  </si>
-  <si>
-    <t>of my next turn.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Strength of Stone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; at-will) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <t>+6 vs AC; 1d10 + 4 damage, and I gain 3 temporary HP.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Thunder Ram Assault </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; Encounter) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <t>+6 vs AC; 1d10 + 4 thunder damage. Make a secondary</t>
-  </si>
-  <si>
-    <t>attack that is a close blast 3. Push the target 3 squares.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Secondary attack: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>each creature in blast. 4 vs Fortitude</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Hit:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1d6 thunder damage and I push the secondary</t>
-    </r>
-  </si>
-  <si>
-    <t>target 1 square.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Form of the Willow Sentinel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(minor; Daily) - Personal</t>
-    </r>
-  </si>
-  <si>
-    <t>I assume the guardian form of the willow sentinel until</t>
-  </si>
-  <si>
-    <t>the end of the encounter. While in this form, I can negate</t>
-  </si>
-  <si>
-    <t>being pulled, pushed, or slid. Any ally adj to me gains +2</t>
-  </si>
-  <si>
-    <t>bonus to Fortitude. I can make the following attack once:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Immediate Interrupt  Melee </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>An adj enemy makes an attack roll against my ally.</t>
-    </r>
-  </si>
-  <si>
-    <t>+4 vs AC; Hit: 1d10 + 4 damage and the target takes a -4</t>
-  </si>
-  <si>
-    <t>penalty to the triggering attack roll.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Miss: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Half damage and the target takes -2 to the roll.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Warden's Fury </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Immediate Interrupt; at-will) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">An enemy marked by me makes an attack that </t>
-    </r>
-  </si>
-  <si>
-    <t>does not include me.</t>
-  </si>
-  <si>
-    <t>advantage to me and my allies until the end of next turn.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Warden's Grasp </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Immediate Reaction; at-will)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Trigger: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>An enemy marked by me that is within 5 squares of me</t>
-    </r>
-  </si>
-  <si>
-    <t>makes an attack that does not include me.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I slide the target 1 square and the target is slowed and</t>
-    </r>
-  </si>
-  <si>
-    <t>cannot shift until the end of its turn.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alignment </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Good</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Languages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Common, Giant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skills</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1 acro, 1 arc, 11 ath, 3 end, 5 heal, 1 hist</t>
-    </r>
-  </si>
-  <si>
-    <t>7 nat, 5 perc, 1 rel, 1 stealth, 1 thievery</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Str</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 18 (+4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Con</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 16 (+3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 11 (+0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stone's Endurance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(minor, Encounter)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I gain resist 5 to all damage until the end of my next turn</t>
-    </r>
-  </si>
-  <si>
-    <t>Once during each turn, I can mark each adj enemy until the</t>
-  </si>
-  <si>
-    <t>end of my next turn.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nature's Wrath </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(free; at-will)</t>
-    </r>
-  </si>
-  <si>
-    <t>Crushing Earthstrength</t>
-  </si>
-  <si>
-    <t>After using second wind, I gain 3 bonus to damage rolls until</t>
-  </si>
-  <si>
-    <t>the end of my next turn.</t>
-  </si>
-  <si>
-    <t>+6 vs Fort; 1d10 + 4 damage, and the target grants combat</t>
+      <t xml:space="preserve"> 10 (+1)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1462,17 +1462,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1480,17 +1480,17 @@
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1515,7 +1515,7 @@
     <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1523,7 +1523,7 @@
     <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1531,14 +1531,14 @@
     <row r="9" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1546,14 +1546,14 @@
     <row r="11" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1561,7 +1561,7 @@
     <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1569,7 +1569,7 @@
     <row r="14" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1577,7 +1577,7 @@
     <row r="15" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1585,7 +1585,7 @@
     <row r="16" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1593,7 +1593,7 @@
     <row r="17" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1601,7 +1601,7 @@
     <row r="18" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1609,7 +1609,7 @@
     <row r="19" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1617,7 +1617,7 @@
     <row r="20" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1625,7 +1625,7 @@
     <row r="21" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1633,7 +1633,7 @@
     <row r="22" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1641,7 +1641,7 @@
     <row r="23" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1649,7 +1649,7 @@
     <row r="24" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1657,7 +1657,7 @@
     <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1665,7 +1665,7 @@
     <row r="26" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1673,7 +1673,7 @@
     <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1681,7 +1681,7 @@
     <row r="28" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1689,7 +1689,7 @@
     <row r="29" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1697,7 +1697,7 @@
     <row r="30" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1705,7 +1705,7 @@
     <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1713,14 +1713,14 @@
     <row r="32" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="36" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="37" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="38" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="40" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="41" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="42" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="43" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="44" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="45" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1824,17 +1824,17 @@
     </row>
     <row r="46" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1843,33 +1843,33 @@
     <row r="48" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
